--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mif-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mif-Cxcr2.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.837028333333333</v>
+        <v>29.723225</v>
       </c>
       <c r="H2">
-        <v>26.511085</v>
+        <v>89.169675</v>
       </c>
       <c r="I2">
-        <v>0.03372386849660382</v>
+        <v>0.0820875860023068</v>
       </c>
       <c r="J2">
-        <v>0.03372386849660382</v>
+        <v>0.08208758600230681</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.040154</v>
+        <v>0.01586133333333333</v>
       </c>
       <c r="N2">
-        <v>0.120462</v>
+        <v>0.047584</v>
       </c>
       <c r="O2">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="P2">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="Q2">
-        <v>0.3548420356966666</v>
+        <v>0.4714499794666667</v>
       </c>
       <c r="R2">
-        <v>3.19357832127</v>
+        <v>4.2430498152</v>
       </c>
       <c r="S2">
-        <v>3.970626625991085E-06</v>
+        <v>2.716967169454677E-06</v>
       </c>
       <c r="T2">
-        <v>3.970626625991085E-06</v>
+        <v>2.716967169454677E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.837028333333333</v>
+        <v>29.723225</v>
       </c>
       <c r="H3">
-        <v>26.511085</v>
+        <v>89.169675</v>
       </c>
       <c r="I3">
-        <v>0.03372386849660382</v>
+        <v>0.0820875860023068</v>
       </c>
       <c r="J3">
-        <v>0.03372386849660382</v>
+        <v>0.08208758600230681</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>2.854025333333333</v>
+        <v>9.992591333333333</v>
       </c>
       <c r="N3">
-        <v>8.562075999999999</v>
+        <v>29.977774</v>
       </c>
       <c r="O3">
-        <v>0.008368558809981951</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="P3">
-        <v>0.008368558809981953</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="Q3">
-        <v>25.22110273471777</v>
+        <v>297.0120405337167</v>
       </c>
       <c r="R3">
-        <v>226.98992461246</v>
+        <v>2673.10836480345</v>
       </c>
       <c r="S3">
-        <v>0.0002822201768139267</v>
+        <v>0.001711680980399546</v>
       </c>
       <c r="T3">
-        <v>0.0002822201768139268</v>
+        <v>0.001711680980399546</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.837028333333333</v>
+        <v>29.723225</v>
       </c>
       <c r="H4">
-        <v>26.511085</v>
+        <v>89.169675</v>
       </c>
       <c r="I4">
-        <v>0.03372386849660382</v>
+        <v>0.0820875860023068</v>
       </c>
       <c r="J4">
-        <v>0.03372386849660382</v>
+        <v>0.08208758600230681</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>338.0118816666666</v>
+        <v>467.0771686666667</v>
       </c>
       <c r="N4">
-        <v>1014.035645</v>
+        <v>1401.231506</v>
       </c>
       <c r="O4">
-        <v>0.9911167490922156</v>
+        <v>0.974666082227028</v>
       </c>
       <c r="P4">
-        <v>0.9911167490922157</v>
+        <v>0.9746660822270279</v>
       </c>
       <c r="Q4">
-        <v>2987.020575291647</v>
+        <v>13883.03977664228</v>
       </c>
       <c r="R4">
-        <v>26883.18517762482</v>
+        <v>124947.3579897806</v>
       </c>
       <c r="S4">
-        <v>0.03342429091116737</v>
+        <v>0.08000798584834259</v>
       </c>
       <c r="T4">
-        <v>0.03342429091116737</v>
+        <v>0.08000798584834259</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.837028333333333</v>
+        <v>29.723225</v>
       </c>
       <c r="H5">
-        <v>26.511085</v>
+        <v>89.169675</v>
       </c>
       <c r="I5">
-        <v>0.03372386849660382</v>
+        <v>0.0820875860023068</v>
       </c>
       <c r="J5">
-        <v>0.03372386849660382</v>
+        <v>0.08208758600230681</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1353773333333333</v>
+        <v>2.132007333333334</v>
       </c>
       <c r="N5">
-        <v>0.406132</v>
+        <v>6.396022</v>
       </c>
       <c r="O5">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251864</v>
       </c>
       <c r="P5">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251863</v>
       </c>
       <c r="Q5">
-        <v>1.196333330357778</v>
+        <v>63.37013367031668</v>
       </c>
       <c r="R5">
-        <v>10.76699997322</v>
+        <v>570.33120303285</v>
       </c>
       <c r="S5">
-        <v>1.338678199653842E-05</v>
+        <v>0.0003652022063952135</v>
       </c>
       <c r="T5">
-        <v>1.338678199653842E-05</v>
+        <v>0.0003652022063952135</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,40 +797,40 @@
         <v>370.284272</v>
       </c>
       <c r="I6">
-        <v>0.4710262931633572</v>
+        <v>0.3408753258672476</v>
       </c>
       <c r="J6">
-        <v>0.4710262931633572</v>
+        <v>0.3408753258672477</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.040154</v>
+        <v>0.01586133333333333</v>
       </c>
       <c r="N6">
-        <v>0.120462</v>
+        <v>0.047584</v>
       </c>
       <c r="O6">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="P6">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="Q6">
-        <v>4.956131552629333</v>
+        <v>1.957734088760889</v>
       </c>
       <c r="R6">
-        <v>44.60518397366399</v>
+        <v>17.619606798848</v>
       </c>
       <c r="S6">
-        <v>5.54583333571193E-05</v>
+        <v>1.128242544777051E-05</v>
       </c>
       <c r="T6">
-        <v>5.54583333571193E-05</v>
+        <v>1.128242544777051E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>370.284272</v>
       </c>
       <c r="I7">
-        <v>0.4710262931633572</v>
+        <v>0.3408753258672476</v>
       </c>
       <c r="J7">
-        <v>0.4710262931633572</v>
+        <v>0.3408753258672477</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>2.854025333333333</v>
+        <v>9.992591333333333</v>
       </c>
       <c r="N7">
-        <v>8.562075999999999</v>
+        <v>29.977774</v>
       </c>
       <c r="O7">
-        <v>0.008368558809981951</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="P7">
-        <v>0.008368558809981953</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="Q7">
-        <v>352.2668976076301</v>
+        <v>1233.366469085614</v>
       </c>
       <c r="R7">
-        <v>3170.402078468672</v>
+        <v>11100.29822177053</v>
       </c>
       <c r="S7">
-        <v>0.003941811235385354</v>
+        <v>0.007107893414700594</v>
       </c>
       <c r="T7">
-        <v>0.003941811235385355</v>
+        <v>0.007107893414700594</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>370.284272</v>
       </c>
       <c r="I8">
-        <v>0.4710262931633572</v>
+        <v>0.3408753258672476</v>
       </c>
       <c r="J8">
-        <v>0.4710262931633572</v>
+        <v>0.3408753258672477</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>338.0118816666666</v>
+        <v>467.0771686666667</v>
       </c>
       <c r="N8">
-        <v>1014.035645</v>
+        <v>1401.231506</v>
       </c>
       <c r="O8">
-        <v>0.9911167490922156</v>
+        <v>0.974666082227028</v>
       </c>
       <c r="P8">
-        <v>0.9911167490922157</v>
+        <v>0.9746660822270279</v>
       </c>
       <c r="Q8">
-        <v>41720.16117676393</v>
+        <v>57650.4431225193</v>
       </c>
       <c r="R8">
-        <v>375481.4505908754</v>
+        <v>518853.9881026737</v>
       </c>
       <c r="S8">
-        <v>0.4668420484170235</v>
+        <v>0.3322396183908917</v>
       </c>
       <c r="T8">
-        <v>0.4668420484170235</v>
+        <v>0.3322396183908917</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,40 +983,40 @@
         <v>370.284272</v>
       </c>
       <c r="I9">
-        <v>0.4710262931633572</v>
+        <v>0.3408753258672476</v>
       </c>
       <c r="J9">
-        <v>0.4710262931633572</v>
+        <v>0.3408753258672477</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1353773333333333</v>
+        <v>2.132007333333334</v>
       </c>
       <c r="N9">
-        <v>0.406132</v>
+        <v>6.396022</v>
       </c>
       <c r="O9">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251864</v>
       </c>
       <c r="P9">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251863</v>
       </c>
       <c r="Q9">
-        <v>16.70936577287822</v>
+        <v>263.1495944406649</v>
       </c>
       <c r="R9">
-        <v>150.384291955904</v>
+        <v>2368.346349965984</v>
       </c>
       <c r="S9">
-        <v>0.0001869751775912203</v>
+        <v>0.001516531636207549</v>
       </c>
       <c r="T9">
-        <v>0.0001869751775912203</v>
+        <v>0.001516531636207549</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.82597366666667</v>
+        <v>32.05146466666667</v>
       </c>
       <c r="H10">
-        <v>92.47792099999999</v>
+        <v>96.154394</v>
       </c>
       <c r="I10">
-        <v>0.1176380840936279</v>
+        <v>0.08851756033623195</v>
       </c>
       <c r="J10">
-        <v>0.1176380840936279</v>
+        <v>0.08851756033623195</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.040154</v>
+        <v>0.01586133333333333</v>
       </c>
       <c r="N10">
-        <v>0.120462</v>
+        <v>0.047584</v>
       </c>
       <c r="O10">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="P10">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="Q10">
-        <v>1.237786146611333</v>
+        <v>0.5083789648995556</v>
       </c>
       <c r="R10">
-        <v>11.140075319502</v>
+        <v>4.575410684096</v>
       </c>
       <c r="S10">
-        <v>1.385063249727048E-05</v>
+        <v>2.929788985961986E-06</v>
       </c>
       <c r="T10">
-        <v>1.385063249727048E-05</v>
+        <v>2.929788985961985E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>30.82597366666667</v>
+        <v>32.05146466666667</v>
       </c>
       <c r="H11">
-        <v>92.47792099999999</v>
+        <v>96.154394</v>
       </c>
       <c r="I11">
-        <v>0.1176380840936279</v>
+        <v>0.08851756033623195</v>
       </c>
       <c r="J11">
-        <v>0.1176380840936279</v>
+        <v>0.08851756033623195</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>2.854025333333333</v>
+        <v>9.992591333333333</v>
       </c>
       <c r="N11">
-        <v>8.562075999999999</v>
+        <v>29.977774</v>
       </c>
       <c r="O11">
-        <v>0.008368558809981951</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="P11">
-        <v>0.008368558809981953</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="Q11">
-        <v>87.97810976933287</v>
+        <v>320.2771880487729</v>
       </c>
       <c r="R11">
-        <v>791.8029879239959</v>
+        <v>2882.494692438956</v>
       </c>
       <c r="S11">
-        <v>0.0009844612250311275</v>
+        <v>0.001845758071806859</v>
       </c>
       <c r="T11">
-        <v>0.0009844612250311277</v>
+        <v>0.001845758071806858</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30.82597366666667</v>
+        <v>32.05146466666667</v>
       </c>
       <c r="H12">
-        <v>92.47792099999999</v>
+        <v>96.154394</v>
       </c>
       <c r="I12">
-        <v>0.1176380840936279</v>
+        <v>0.08851756033623195</v>
       </c>
       <c r="J12">
-        <v>0.1176380840936279</v>
+        <v>0.08851756033623195</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>338.0118816666666</v>
+        <v>467.0771686666667</v>
       </c>
       <c r="N12">
-        <v>1014.035645</v>
+        <v>1401.231506</v>
       </c>
       <c r="O12">
-        <v>0.9911167490922156</v>
+        <v>0.974666082227028</v>
       </c>
       <c r="P12">
-        <v>0.9911167490922157</v>
+        <v>0.9746660822270279</v>
       </c>
       <c r="Q12">
-        <v>10419.54536327712</v>
+        <v>14970.50736812637</v>
       </c>
       <c r="R12">
-        <v>93775.90826949403</v>
+        <v>134734.5663131374</v>
       </c>
       <c r="S12">
-        <v>0.1165930754763132</v>
+        <v>0.08627506374120976</v>
       </c>
       <c r="T12">
-        <v>0.1165930754763132</v>
+        <v>0.08627506374120976</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.82597366666667</v>
+        <v>32.05146466666667</v>
       </c>
       <c r="H13">
-        <v>92.47792099999999</v>
+        <v>96.154394</v>
       </c>
       <c r="I13">
-        <v>0.1176380840936279</v>
+        <v>0.08851756033623195</v>
       </c>
       <c r="J13">
-        <v>0.1176380840936279</v>
+        <v>0.08851756033623195</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1353773333333333</v>
+        <v>2.132007333333334</v>
       </c>
       <c r="N13">
-        <v>0.406132</v>
+        <v>6.396022</v>
       </c>
       <c r="O13">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251864</v>
       </c>
       <c r="P13">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251863</v>
       </c>
       <c r="Q13">
-        <v>4.173138112396888</v>
+        <v>68.33395771340757</v>
       </c>
       <c r="R13">
-        <v>37.558243011572</v>
+        <v>615.005619420668</v>
       </c>
       <c r="S13">
-        <v>4.669675978633475E-05</v>
+        <v>0.0003938087342293744</v>
       </c>
       <c r="T13">
-        <v>4.669675978633475E-05</v>
+        <v>0.0003938087342293743</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>37.46440266666666</v>
+        <v>81.12839166666667</v>
       </c>
       <c r="H14">
-        <v>112.393208</v>
+        <v>243.385175</v>
       </c>
       <c r="I14">
-        <v>0.1429716575728018</v>
+        <v>0.2240548873201455</v>
       </c>
       <c r="J14">
-        <v>0.1429716575728018</v>
+        <v>0.2240548873201455</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.040154</v>
+        <v>0.01586133333333333</v>
       </c>
       <c r="N14">
-        <v>0.120462</v>
+        <v>0.047584</v>
       </c>
       <c r="O14">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="P14">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="Q14">
-        <v>1.504345624677333</v>
+        <v>1.286804463022222</v>
       </c>
       <c r="R14">
-        <v>13.539110622096</v>
+        <v>11.5812401672</v>
       </c>
       <c r="S14">
-        <v>1.683339117449754E-05</v>
+        <v>7.415856680053856E-06</v>
       </c>
       <c r="T14">
-        <v>1.683339117449754E-05</v>
+        <v>7.415856680053855E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>37.46440266666666</v>
+        <v>81.12839166666667</v>
       </c>
       <c r="H15">
-        <v>112.393208</v>
+        <v>243.385175</v>
       </c>
       <c r="I15">
-        <v>0.1429716575728018</v>
+        <v>0.2240548873201455</v>
       </c>
       <c r="J15">
-        <v>0.1429716575728018</v>
+        <v>0.2240548873201455</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>2.854025333333333</v>
+        <v>9.992591333333333</v>
       </c>
       <c r="N15">
-        <v>8.562075999999999</v>
+        <v>29.977774</v>
       </c>
       <c r="O15">
-        <v>0.008368558809981951</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="P15">
-        <v>0.008368558809981953</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="Q15">
-        <v>106.9243543088675</v>
+        <v>810.6828634556056</v>
       </c>
       <c r="R15">
-        <v>962.319188779808</v>
+        <v>7296.14577110045</v>
       </c>
       <c r="S15">
-        <v>0.001196466724558593</v>
+        <v>0.004671966954670577</v>
       </c>
       <c r="T15">
-        <v>0.001196466724558593</v>
+        <v>0.004671966954670577</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>37.46440266666666</v>
+        <v>81.12839166666667</v>
       </c>
       <c r="H16">
-        <v>112.393208</v>
+        <v>243.385175</v>
       </c>
       <c r="I16">
-        <v>0.1429716575728018</v>
+        <v>0.2240548873201455</v>
       </c>
       <c r="J16">
-        <v>0.1429716575728018</v>
+        <v>0.2240548873201455</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>338.0118816666666</v>
+        <v>467.0771686666667</v>
       </c>
       <c r="N16">
-        <v>1014.035645</v>
+        <v>1401.231506</v>
       </c>
       <c r="O16">
-        <v>0.9911167490922156</v>
+        <v>0.974666082227028</v>
       </c>
       <c r="P16">
-        <v>0.9911167490922157</v>
+        <v>0.9746660822270279</v>
       </c>
       <c r="Q16">
-        <v>12663.41324087768</v>
+        <v>37893.21947814707</v>
       </c>
       <c r="R16">
-        <v>113970.7191678992</v>
+        <v>341038.9753033236</v>
       </c>
       <c r="S16">
-        <v>0.1417016044658807</v>
+        <v>0.2183786992281444</v>
       </c>
       <c r="T16">
-        <v>0.1417016044658807</v>
+        <v>0.2183786992281444</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>37.46440266666666</v>
+        <v>81.12839166666667</v>
       </c>
       <c r="H17">
-        <v>112.393208</v>
+        <v>243.385175</v>
       </c>
       <c r="I17">
-        <v>0.1429716575728018</v>
+        <v>0.2240548873201455</v>
       </c>
       <c r="J17">
-        <v>0.1429716575728018</v>
+        <v>0.2240548873201455</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1353773333333333</v>
+        <v>2.132007333333334</v>
       </c>
       <c r="N17">
-        <v>0.406132</v>
+        <v>6.396022</v>
       </c>
       <c r="O17">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251864</v>
       </c>
       <c r="P17">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251863</v>
       </c>
       <c r="Q17">
-        <v>5.071830927939555</v>
+        <v>172.9663259748723</v>
       </c>
       <c r="R17">
-        <v>45.646478351456</v>
+        <v>1556.69693377385</v>
       </c>
       <c r="S17">
-        <v>5.675299118793509E-05</v>
+        <v>0.0009968052806504585</v>
       </c>
       <c r="T17">
-        <v>5.67529911879351E-05</v>
+        <v>0.0009968052806504585</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>35.74964633333333</v>
+        <v>29.77544966666666</v>
       </c>
       <c r="H18">
-        <v>107.248939</v>
+        <v>89.32634899999999</v>
       </c>
       <c r="I18">
-        <v>0.1364278042651323</v>
+        <v>0.0822318165431193</v>
       </c>
       <c r="J18">
-        <v>0.1364278042651323</v>
+        <v>0.08223181654311931</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.040154</v>
+        <v>0.01586133333333333</v>
       </c>
       <c r="N18">
-        <v>0.120462</v>
+        <v>0.047584</v>
       </c>
       <c r="O18">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="P18">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="Q18">
-        <v>1.435491298868666</v>
+        <v>0.4722783323128889</v>
       </c>
       <c r="R18">
-        <v>12.919421689818</v>
+        <v>4.250504990816</v>
       </c>
       <c r="S18">
-        <v>1.606292208722101E-05</v>
+        <v>2.72174096855518E-06</v>
       </c>
       <c r="T18">
-        <v>1.606292208722101E-05</v>
+        <v>2.72174096855518E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>35.74964633333333</v>
+        <v>29.77544966666666</v>
       </c>
       <c r="H19">
-        <v>107.248939</v>
+        <v>89.32634899999999</v>
       </c>
       <c r="I19">
-        <v>0.1364278042651323</v>
+        <v>0.0822318165431193</v>
       </c>
       <c r="J19">
-        <v>0.1364278042651323</v>
+        <v>0.08223181654311931</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>2.854025333333333</v>
+        <v>9.992591333333333</v>
       </c>
       <c r="N19">
-        <v>8.562075999999999</v>
+        <v>29.977774</v>
       </c>
       <c r="O19">
-        <v>0.008368558809981951</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="P19">
-        <v>0.008368558809981953</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="Q19">
-        <v>102.0303962930404</v>
+        <v>297.5339002852362</v>
       </c>
       <c r="R19">
-        <v>918.2735666373638</v>
+        <v>2677.805102567126</v>
       </c>
       <c r="S19">
-        <v>0.001141704103309466</v>
+        <v>0.001714688459185614</v>
       </c>
       <c r="T19">
-        <v>0.001141704103309466</v>
+        <v>0.001714688459185614</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>35.74964633333333</v>
+        <v>29.77544966666666</v>
       </c>
       <c r="H20">
-        <v>107.248939</v>
+        <v>89.32634899999999</v>
       </c>
       <c r="I20">
-        <v>0.1364278042651323</v>
+        <v>0.0822318165431193</v>
       </c>
       <c r="J20">
-        <v>0.1364278042651323</v>
+        <v>0.08223181654311931</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>338.0118816666666</v>
+        <v>467.0771686666667</v>
       </c>
       <c r="N20">
-        <v>1014.035645</v>
+        <v>1401.231506</v>
       </c>
       <c r="O20">
-        <v>0.9911167490922156</v>
+        <v>0.974666082227028</v>
       </c>
       <c r="P20">
-        <v>0.9911167490922157</v>
+        <v>0.9746660822270279</v>
       </c>
       <c r="Q20">
-        <v>12083.80522604785</v>
+        <v>13907.43272608351</v>
       </c>
       <c r="R20">
-        <v>108754.2470344306</v>
+        <v>125166.8945347516</v>
       </c>
       <c r="S20">
-        <v>0.135215881849047</v>
+        <v>0.0801485624644938</v>
       </c>
       <c r="T20">
-        <v>0.135215881849047</v>
+        <v>0.0801485624644938</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>35.74964633333333</v>
+        <v>29.77544966666666</v>
       </c>
       <c r="H21">
-        <v>107.248939</v>
+        <v>89.32634899999999</v>
       </c>
       <c r="I21">
-        <v>0.1364278042651323</v>
+        <v>0.0822318165431193</v>
       </c>
       <c r="J21">
-        <v>0.1364278042651323</v>
+        <v>0.08223181654311931</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.1353773333333333</v>
+        <v>2.132007333333334</v>
       </c>
       <c r="N21">
-        <v>0.406132</v>
+        <v>6.396022</v>
       </c>
       <c r="O21">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251864</v>
       </c>
       <c r="P21">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251863</v>
       </c>
       <c r="Q21">
-        <v>4.839691788216443</v>
+        <v>63.48147704263089</v>
       </c>
       <c r="R21">
-        <v>43.557226093948</v>
+        <v>571.333293383678</v>
       </c>
       <c r="S21">
-        <v>5.415539068857601E-05</v>
+        <v>0.0003658438784713399</v>
       </c>
       <c r="T21">
-        <v>5.415539068857601E-05</v>
+        <v>0.0003658438784713399</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.73562433333333</v>
+        <v>65.98497399999999</v>
       </c>
       <c r="H22">
-        <v>77.206873</v>
+        <v>197.954922</v>
       </c>
       <c r="I22">
-        <v>0.09821229240847715</v>
+        <v>0.1822328239309489</v>
       </c>
       <c r="J22">
-        <v>0.09821229240847715</v>
+        <v>0.1822328239309489</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.040154</v>
+        <v>0.01586133333333333</v>
       </c>
       <c r="N22">
-        <v>0.120462</v>
+        <v>0.047584</v>
       </c>
       <c r="O22">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="P22">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="Q22">
-        <v>1.033388259480666</v>
+        <v>1.046609667605333</v>
       </c>
       <c r="R22">
-        <v>9.300494335325999</v>
+        <v>9.419487008448</v>
       </c>
       <c r="S22">
-        <v>1.156345225566257E-05</v>
+        <v>6.031613596281038E-06</v>
       </c>
       <c r="T22">
-        <v>1.156345225566257E-05</v>
+        <v>6.031613596281037E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.73562433333333</v>
+        <v>65.98497399999999</v>
       </c>
       <c r="H23">
-        <v>77.206873</v>
+        <v>197.954922</v>
       </c>
       <c r="I23">
-        <v>0.09821229240847715</v>
+        <v>0.1822328239309489</v>
       </c>
       <c r="J23">
-        <v>0.09821229240847715</v>
+        <v>0.1822328239309489</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>2.854025333333333</v>
+        <v>9.992591333333333</v>
       </c>
       <c r="N23">
-        <v>8.562075999999999</v>
+        <v>29.977774</v>
       </c>
       <c r="O23">
-        <v>0.008368558809981951</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="P23">
-        <v>0.008368558809981953</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="Q23">
-        <v>73.4501238164831</v>
+        <v>659.3608793226252</v>
       </c>
       <c r="R23">
-        <v>661.0511143483479</v>
+        <v>5934.247913903628</v>
       </c>
       <c r="S23">
-        <v>0.0008218953448834849</v>
+        <v>0.003799898059108948</v>
       </c>
       <c r="T23">
-        <v>0.0008218953448834851</v>
+        <v>0.003799898059108948</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.73562433333333</v>
+        <v>65.98497399999999</v>
       </c>
       <c r="H24">
-        <v>77.206873</v>
+        <v>197.954922</v>
       </c>
       <c r="I24">
-        <v>0.09821229240847715</v>
+        <v>0.1822328239309489</v>
       </c>
       <c r="J24">
-        <v>0.09821229240847715</v>
+        <v>0.1822328239309489</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>338.0118816666666</v>
+        <v>467.0771686666667</v>
       </c>
       <c r="N24">
-        <v>1014.035645</v>
+        <v>1401.231506</v>
       </c>
       <c r="O24">
-        <v>0.9911167490922156</v>
+        <v>0.974666082227028</v>
       </c>
       <c r="P24">
-        <v>0.9911167490922157</v>
+        <v>0.9746660822270279</v>
       </c>
       <c r="Q24">
-        <v>8698.946806776454</v>
+        <v>30820.07483046361</v>
       </c>
       <c r="R24">
-        <v>78290.52126098808</v>
+        <v>277380.6734741725</v>
       </c>
       <c r="S24">
-        <v>0.09733984797278396</v>
+        <v>0.1776161525539457</v>
       </c>
       <c r="T24">
-        <v>0.09733984797278397</v>
+        <v>0.1776161525539457</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.73562433333333</v>
+        <v>65.98497399999999</v>
       </c>
       <c r="H25">
-        <v>77.206873</v>
+        <v>197.954922</v>
       </c>
       <c r="I25">
-        <v>0.09821229240847715</v>
+        <v>0.1822328239309489</v>
       </c>
       <c r="J25">
-        <v>0.09821229240847715</v>
+        <v>0.1822328239309489</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1353773333333333</v>
+        <v>2.132007333333334</v>
       </c>
       <c r="N25">
-        <v>0.406132</v>
+        <v>6.396022</v>
       </c>
       <c r="O25">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251864</v>
       </c>
       <c r="P25">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251863</v>
       </c>
       <c r="Q25">
-        <v>3.484020193915111</v>
+        <v>140.6804484578093</v>
       </c>
       <c r="R25">
-        <v>31.356181745236</v>
+        <v>1266.124036120284</v>
       </c>
       <c r="S25">
-        <v>3.898563855403988E-05</v>
+        <v>0.0008107417042979285</v>
       </c>
       <c r="T25">
-        <v>3.898563855403989E-05</v>
+        <v>0.0008107417042979285</v>
       </c>
     </row>
   </sheetData>
